--- a/biology/Botanique/Clavariadelphaceae/Clavariadelphaceae.xlsx
+++ b/biology/Botanique/Clavariadelphaceae/Clavariadelphaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Clavariadelphaceae sont une famille de champignons agaricomycètes de l’ordre des Gomphales selon Index Fungorum                                      (2 novembre 2013)[1].
-Selon MycoBank                                            (2 novembre 2013)[2], cette famille est synonyme de la famille des Gomphaceae qui est le nom valide.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Clavariadelphaceae sont une famille de champignons agaricomycètes de l’ordre des Gomphales selon Index Fungorum                                      (2 novembre 2013).
+Selon MycoBank                                            (2 novembre 2013), cette famille est synonyme de la famille des Gomphaceae qui est le nom valide.
 Il présente deux genres : Beenakia qui comporte sept espèces qui sont proches par la forme des hydnums, (sporophore à aiguillons) et Clavariadelphus qui propose une vingtaine d'espèces en forme de grosses massues.[réf. nécessaire]
 			Clavariadelphus pistillaris, Pays Baltes
 			Clavariadelphus truncatus, Slovénie
@@ -518,17 +530,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Genre Beenakia
-Habitat : Équateur, Guadeloupe, Java, Madagascar, Tunisie, Venezuela, et Vietnam. La plus connue est Beenakia dacostae.[réf. nécessaire]
-Beenakia dacostae (D.A. Reid 1956[3])
-Beenakia fricta (Maas Geest. 1967[4])
+          <t>Genre Beenakia</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Habitat : Équateur, Guadeloupe, Java, Madagascar, Tunisie, Venezuela, et Vietnam. La plus connue est Beenakia dacostae.[réf. nécessaire]
+Beenakia dacostae (D.A. Reid 1956)
+Beenakia fricta (Maas Geest. 1967)
 Beenakia fuliginosa
 Beenakia hololeuca
 Beenakia informis
 Beenakia mediterranea
-Beenakia subglobospora
-Genre Clavariadelphus
-Clavariadelphus americanus
+Beenakia subglobospora</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Clavariadelphaceae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clavariadelphaceae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie des Clavariadelphaceae</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genre Clavariadelphus</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Clavariadelphus americanus
 Clavariadelphus caespitosus
 Clavariadelphus cokeri
 Clavariadelphus fasciculatus
@@ -552,33 +603,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Clavariadelphaceae</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Clavariadelphaceae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (2 novembre 2013)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 novembre 2013) :
 genre Beenakia
 genre Clavariadelphus</t>
         </is>
